--- a/BalanceSheet/EIX_bal.xlsx
+++ b/BalanceSheet/EIX_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-12000000.0</v>
+        <v>416000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-19000000.0</v>
+        <v>405000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-5000000.0</v>
+        <v>387000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-20000000.0</v>
+        <v>382000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1000000.0</v>
+        <v>363000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>364000000.0</v>
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-151000000.0</v>
+        <v>1602000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>80000000.0</v>
+        <v>1980000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>1691000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>143000000.0</v>
+        <v>1657000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-129000000.0</v>
+        <v>1454000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1752000000.0</v>
@@ -2809,19 +2809,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-37000000.0</v>
+        <v>5474000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>48000000.0</v>
+        <v>5368000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-286000000.0</v>
+        <v>5161000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>5295000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-58000000.0</v>
+        <v>5173000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>5078000000.0</v>
@@ -4772,7 +4772,7 @@
         <v>20595000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>19444000000.0</v>
+        <v>18825000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>17998000000.0</v>
@@ -4899,7 +4899,7 @@
         <v>21984000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>19595000000.0</v>
+        <v>18893000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>18545000000.0</v>
